--- a/data/pop_2015.xlsx
+++ b/data/pop_2015.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\LS빅데이터스쿨\LTH\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\LS 빅데이터 스쿨\TEAM_What-is-the-dinner-menu_new\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2557,7 +2557,7 @@
   <dimension ref="A1:AN20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
